--- a/src/test/resources/data1.xlsx
+++ b/src/test/resources/data1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\workspace1\SDET34L1\src\test\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Madhu\git\sdet34L11\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41A0B4E3-D82D-4E57-8B00-7C633431061A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80747A9A-C7BB-430D-B056-5D16CC2E5B7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11964" yWindow="768" windowWidth="10584" windowHeight="10128" firstSheet="6" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11520" yWindow="1164" windowWidth="10584" windowHeight="10128" firstSheet="7" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="commondata" sheetId="1" r:id="rId1"/>
@@ -21,6 +21,8 @@
     <sheet name="document" sheetId="7" r:id="rId6"/>
     <sheet name="commondata1" sheetId="8" r:id="rId7"/>
     <sheet name="groupname" sheetId="9" r:id="rId8"/>
+    <sheet name="mmt from" sheetId="10" r:id="rId9"/>
+    <sheet name="mmt to" sheetId="11" r:id="rId10"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -32,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="113">
   <si>
     <t>url</t>
   </si>
@@ -311,13 +313,73 @@
   </si>
   <si>
     <t>Bankmanager</t>
+  </si>
+  <si>
+    <t>bangalore</t>
+  </si>
+  <si>
+    <t>mumbai</t>
+  </si>
+  <si>
+    <t>delhi</t>
+  </si>
+  <si>
+    <t>manglore</t>
+  </si>
+  <si>
+    <t>pune</t>
+  </si>
+  <si>
+    <t>hyderabad</t>
+  </si>
+  <si>
+    <t>kolkatta</t>
+  </si>
+  <si>
+    <t>chennai</t>
+  </si>
+  <si>
+    <t>dubai</t>
+  </si>
+  <si>
+    <t>goa</t>
+  </si>
+  <si>
+    <t>Bengaluru</t>
+  </si>
+  <si>
+    <t>Kolkata</t>
+  </si>
+  <si>
+    <t>Mumbai</t>
+  </si>
+  <si>
+    <t>New Delhi</t>
+  </si>
+  <si>
+    <t>Mangalore</t>
+  </si>
+  <si>
+    <t>Chennai</t>
+  </si>
+  <si>
+    <t>Pune</t>
+  </si>
+  <si>
+    <t>Hyderabad</t>
+  </si>
+  <si>
+    <t>Goa</t>
+  </si>
+  <si>
+    <t>Dubai</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -374,6 +436,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FF202124"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="3">
@@ -453,7 +521,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -491,6 +559,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1109,6 +1178,71 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{840C68D4-1093-4742-B2A7-8E15183A6810}">
+  <dimension ref="A1:A10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>98</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1410F291-E164-4384-AD18-38A4C89198FC}">
   <dimension ref="A1:B3"/>
@@ -1573,7 +1707,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A9A4377-A2DB-4760-A0CF-1E01A29C1541}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
@@ -1587,4 +1721,106 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4F2EB2F-A002-4BDE-A917-6211BD890213}">
+  <dimension ref="A1:F10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>106</v>
+      </c>
+      <c r="B3" t="s">
+        <v>111</v>
+      </c>
+      <c r="F3" s="19"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>107</v>
+      </c>
+      <c r="B4" t="s">
+        <v>112</v>
+      </c>
+      <c r="F4" s="19"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>109</v>
+      </c>
+      <c r="B5" t="s">
+        <v>103</v>
+      </c>
+      <c r="E5" s="19"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>110</v>
+      </c>
+      <c r="B6" t="s">
+        <v>105</v>
+      </c>
+      <c r="E6" s="19"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>104</v>
+      </c>
+      <c r="B7" t="s">
+        <v>106</v>
+      </c>
+      <c r="E7" s="19"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>108</v>
+      </c>
+      <c r="B8" t="s">
+        <v>107</v>
+      </c>
+      <c r="D8" s="19"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>111</v>
+      </c>
+      <c r="B9" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>112</v>
+      </c>
+      <c r="B10" t="s">
+        <v>110</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>